--- a/data/pca/factorExposure/factorExposure_2013-05-31.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-05-31.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.001284813464300074</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001938827213639391</v>
+      </c>
+      <c r="C2">
+        <v>-0.03257408191991658</v>
+      </c>
+      <c r="D2">
+        <v>-0.002574704717853094</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.001415574954915145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.005820270078653249</v>
+      </c>
+      <c r="C4">
+        <v>-0.08366348731720862</v>
+      </c>
+      <c r="D4">
+        <v>-0.0804256887034176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0003443734973260425</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01302922365467916</v>
+      </c>
+      <c r="C6">
+        <v>-0.1080844023166648</v>
+      </c>
+      <c r="D6">
+        <v>-0.03478759029648321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.001343533674319483</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004774043668481514</v>
+      </c>
+      <c r="C7">
+        <v>-0.05189553266182523</v>
+      </c>
+      <c r="D7">
+        <v>-0.03812725812698613</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.001279371498319337</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005596042261464576</v>
+      </c>
+      <c r="C8">
+        <v>-0.03681054522069757</v>
+      </c>
+      <c r="D8">
+        <v>-0.03981596162853222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.004980138071750189</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.003835082765144986</v>
+      </c>
+      <c r="C9">
+        <v>-0.06836823047872372</v>
+      </c>
+      <c r="D9">
+        <v>-0.0698655202548851</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.00444834766316978</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005668532530158756</v>
+      </c>
+      <c r="C10">
+        <v>-0.07642351274528141</v>
+      </c>
+      <c r="D10">
+        <v>0.2086816781507062</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.004933962647855259</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.004873688286862716</v>
+      </c>
+      <c r="C11">
+        <v>-0.07778403275801186</v>
+      </c>
+      <c r="D11">
+        <v>-0.06593674869376261</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.0007011404828841415</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.003594300752484353</v>
+      </c>
+      <c r="C12">
+        <v>-0.06252155593766484</v>
+      </c>
+      <c r="D12">
+        <v>-0.04720332189923838</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.003958454436299162</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008529538209861579</v>
+      </c>
+      <c r="C13">
+        <v>-0.06859750421093394</v>
+      </c>
+      <c r="D13">
+        <v>-0.06983247362636943</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.002986836382524155</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001525593746872606</v>
+      </c>
+      <c r="C14">
+        <v>-0.04583412541541559</v>
+      </c>
+      <c r="D14">
+        <v>-0.01483932538339171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.002845953173611617</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005528207052981959</v>
+      </c>
+      <c r="C15">
+        <v>-0.03735774205514641</v>
+      </c>
+      <c r="D15">
+        <v>-0.0405480883460409</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.002499117607051285</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.004712476243868674</v>
+      </c>
+      <c r="C16">
+        <v>-0.06404874139044228</v>
+      </c>
+      <c r="D16">
+        <v>-0.05063892913059614</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-0.0008256458356006229</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008851640188419004</v>
+      </c>
+      <c r="C20">
+        <v>-0.06443196196733679</v>
+      </c>
+      <c r="D20">
+        <v>-0.05793261790777848</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.004412462141560177</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009906391987915335</v>
+      </c>
+      <c r="C21">
+        <v>-0.02279667786853531</v>
+      </c>
+      <c r="D21">
+        <v>-0.03779351587345374</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01631160717319163</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.007227530330989575</v>
+      </c>
+      <c r="C22">
+        <v>-0.09059439096834213</v>
+      </c>
+      <c r="D22">
+        <v>-0.09870463649409608</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.016583559830569</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.007018716496564247</v>
+      </c>
+      <c r="C23">
+        <v>-0.09166123006537168</v>
+      </c>
+      <c r="D23">
+        <v>-0.09932047041606394</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.003476822321367359</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.004498874702368139</v>
+      </c>
+      <c r="C24">
+        <v>-0.07211131014890765</v>
+      </c>
+      <c r="D24">
+        <v>-0.06031229129435427</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.00506736816498203</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.002520998970636511</v>
+      </c>
+      <c r="C25">
+        <v>-0.07656335479182887</v>
+      </c>
+      <c r="D25">
+        <v>-0.06558395264142935</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.005925991158646261</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003494584902918035</v>
+      </c>
+      <c r="C26">
+        <v>-0.04050141848636029</v>
+      </c>
+      <c r="D26">
+        <v>-0.02864484135744664</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.005698548034917931</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.0006807227507751685</v>
+      </c>
+      <c r="C28">
+        <v>-0.1269825748280928</v>
+      </c>
+      <c r="D28">
+        <v>0.3077293794747914</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001901085970875957</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003179869157122449</v>
+      </c>
+      <c r="C29">
+        <v>-0.04763105937109495</v>
+      </c>
+      <c r="D29">
+        <v>-0.01734800611154678</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.005047295980633301</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.008429825903950873</v>
+      </c>
+      <c r="C30">
+        <v>-0.1362275604241639</v>
+      </c>
+      <c r="D30">
+        <v>-0.1074328803619098</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.0002528368399105671</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.005960917303111195</v>
+      </c>
+      <c r="C31">
+        <v>-0.04461236975041308</v>
+      </c>
+      <c r="D31">
+        <v>-0.03551895709670054</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.001732036698831521</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.003821004328668969</v>
+      </c>
+      <c r="C32">
+        <v>-0.03925627902751722</v>
+      </c>
+      <c r="D32">
+        <v>-0.01318651980377216</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.00267363615284045</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.00744588817074319</v>
+      </c>
+      <c r="C33">
+        <v>-0.08160875035386946</v>
+      </c>
+      <c r="D33">
+        <v>-0.07777515451054355</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.005182364094754359</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003485142684066354</v>
+      </c>
+      <c r="C34">
+        <v>-0.05674005285608362</v>
+      </c>
+      <c r="D34">
+        <v>-0.04591409000410454</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.003613831969570763</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.0047167165367483</v>
+      </c>
+      <c r="C35">
+        <v>-0.03837956806916771</v>
+      </c>
+      <c r="D35">
+        <v>-0.01347887021422914</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004419939222933247</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001454648299413147</v>
+      </c>
+      <c r="C36">
+        <v>-0.02291816261870603</v>
+      </c>
+      <c r="D36">
+        <v>-0.02280359605522345</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002493296096124924</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009494637001873958</v>
+      </c>
+      <c r="C38">
+        <v>-0.03306941082109834</v>
+      </c>
+      <c r="D38">
+        <v>-0.02885319734983593</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01331338538635611</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.001237365951080779</v>
+      </c>
+      <c r="C39">
+        <v>-0.115015774746163</v>
+      </c>
+      <c r="D39">
+        <v>-0.0814623394407341</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.007781680908202795</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.00202954168998145</v>
+      </c>
+      <c r="C40">
+        <v>-0.08578059433214726</v>
+      </c>
+      <c r="D40">
+        <v>-0.02648623161666594</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.0002976070805713953</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007223778278466163</v>
+      </c>
+      <c r="C41">
+        <v>-0.03839977732037308</v>
+      </c>
+      <c r="D41">
+        <v>-0.03701548881103957</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.002862632530881885</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003089703496379288</v>
+      </c>
+      <c r="C43">
+        <v>-0.04975807150794936</v>
+      </c>
+      <c r="D43">
+        <v>-0.02926189667778253</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.005004931196996302</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.00339401404264375</v>
+      </c>
+      <c r="C44">
+        <v>-0.1069954103087068</v>
+      </c>
+      <c r="D44">
+        <v>-0.08489144155908404</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.002399231061925437</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002375493566793682</v>
+      </c>
+      <c r="C46">
+        <v>-0.03474996257227192</v>
+      </c>
+      <c r="D46">
+        <v>-0.03534774669987483</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.001468467138364127</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002769553213090055</v>
+      </c>
+      <c r="C47">
+        <v>-0.03893597080855338</v>
+      </c>
+      <c r="D47">
+        <v>-0.02988409372807397</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003711105665503553</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006468888263075676</v>
+      </c>
+      <c r="C48">
+        <v>-0.02909992260503063</v>
+      </c>
+      <c r="D48">
+        <v>-0.03164854709908427</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01414690346404528</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01356253760103122</v>
+      </c>
+      <c r="C49">
+        <v>-0.1709687149152208</v>
+      </c>
+      <c r="D49">
+        <v>-0.03474795379163517</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0003974041853352052</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003489305686412367</v>
+      </c>
+      <c r="C50">
+        <v>-0.04131515275349532</v>
+      </c>
+      <c r="D50">
+        <v>-0.04015374484445464</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.001849780266299113</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.003980080834555511</v>
+      </c>
+      <c r="C51">
+        <v>-0.01952442210072401</v>
+      </c>
+      <c r="D51">
+        <v>-0.03302813089695134</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.001582487414967132</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02002208914257022</v>
+      </c>
+      <c r="C53">
+        <v>-0.1651905144581899</v>
+      </c>
+      <c r="D53">
+        <v>-0.05384902447705339</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.000328814035459894</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008272146843191514</v>
+      </c>
+      <c r="C54">
+        <v>-0.05495149908745722</v>
+      </c>
+      <c r="D54">
+        <v>-0.04309989425161734</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.004285952547188689</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009161207582459009</v>
+      </c>
+      <c r="C55">
+        <v>-0.1050410657267569</v>
+      </c>
+      <c r="D55">
+        <v>-0.05333916863292878</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.002974344008352555</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.01917912078921283</v>
+      </c>
+      <c r="C56">
+        <v>-0.1719048360166695</v>
+      </c>
+      <c r="D56">
+        <v>-0.05029371120260667</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.008000178528017212</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01916601914380839</v>
+      </c>
+      <c r="C58">
+        <v>-0.1002479501329447</v>
+      </c>
+      <c r="D58">
+        <v>-0.07875632681909708</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.008029379270396493</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009065497398593497</v>
+      </c>
+      <c r="C59">
+        <v>-0.1696809504985896</v>
+      </c>
+      <c r="D59">
+        <v>0.2769179196232505</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.006105500022198816</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02274056648031222</v>
+      </c>
+      <c r="C60">
+        <v>-0.2214402543605171</v>
+      </c>
+      <c r="D60">
+        <v>-0.02922459849875624</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01510768546131823</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.002250301266297236</v>
+      </c>
+      <c r="C61">
+        <v>-0.09432696586681434</v>
+      </c>
+      <c r="D61">
+        <v>-0.06180644840262042</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1834880000095118</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1433181608377189</v>
+      </c>
+      <c r="C62">
+        <v>-0.07554717630903293</v>
+      </c>
+      <c r="D62">
+        <v>-0.05380635991265267</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.002111149611617369</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006345617686401241</v>
+      </c>
+      <c r="C63">
+        <v>-0.05924178518106335</v>
+      </c>
+      <c r="D63">
+        <v>-0.02603981713471056</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.007354597395066077</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01445291791089085</v>
+      </c>
+      <c r="C64">
+        <v>-0.1023114063022937</v>
+      </c>
+      <c r="D64">
+        <v>-0.06450225392596715</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.0002379034490213904</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01667087528571964</v>
+      </c>
+      <c r="C65">
+        <v>-0.1137397626026103</v>
+      </c>
+      <c r="D65">
+        <v>-0.02946554297933387</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.009605608126158023</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01183470132542408</v>
+      </c>
+      <c r="C66">
+        <v>-0.1534034668837025</v>
+      </c>
+      <c r="D66">
+        <v>-0.1188416320403524</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.002586021621188722</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.0155102874123348</v>
+      </c>
+      <c r="C67">
+        <v>-0.06257433281706672</v>
+      </c>
+      <c r="D67">
+        <v>-0.03945282731308128</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.008621284299738885</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.001306265044222471</v>
+      </c>
+      <c r="C68">
+        <v>-0.1116043084463641</v>
+      </c>
+      <c r="D68">
+        <v>0.2625965457545573</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.003592692939096471</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.005530079565348194</v>
+      </c>
+      <c r="C69">
+        <v>-0.04580902974462388</v>
+      </c>
+      <c r="D69">
+        <v>-0.04547527236418741</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.00164992604212663</v>
+      </c>
+      <c r="C70">
+        <v>-0.001145988762461545</v>
+      </c>
+      <c r="D70">
+        <v>-0.002098940171058944</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.00380353419264191</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.006000038820096996</v>
+      </c>
+      <c r="C71">
+        <v>-0.1134137474537919</v>
+      </c>
+      <c r="D71">
+        <v>0.2836222019057781</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.00867244219374368</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01490906088957822</v>
+      </c>
+      <c r="C72">
+        <v>-0.1495187481768506</v>
+      </c>
+      <c r="D72">
+        <v>-0.02739090624029338</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01305899165489752</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.02910946143276398</v>
+      </c>
+      <c r="C73">
+        <v>-0.2830930230695393</v>
+      </c>
+      <c r="D73">
+        <v>-0.05307742365783987</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.003952468229670914</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.00131246358454765</v>
+      </c>
+      <c r="C74">
+        <v>-0.1040742320539469</v>
+      </c>
+      <c r="D74">
+        <v>-0.04416344517919863</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.006653256177877282</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01038133964082551</v>
+      </c>
+      <c r="C75">
+        <v>-0.1307161631705026</v>
+      </c>
+      <c r="D75">
+        <v>-0.04121503187822777</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.01227786051923394</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02098064200740779</v>
+      </c>
+      <c r="C76">
+        <v>-0.1447313646250683</v>
+      </c>
+      <c r="D76">
+        <v>-0.074917788311177</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.003894601565232185</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02383053610613067</v>
+      </c>
+      <c r="C77">
+        <v>-0.1318472731075047</v>
+      </c>
+      <c r="D77">
+        <v>-0.06556799450477029</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0007765681242901118</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.013838863913117</v>
+      </c>
+      <c r="C78">
+        <v>-0.09063897476799707</v>
+      </c>
+      <c r="D78">
+        <v>-0.0666175380631539</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02726571409107611</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03650205024673363</v>
+      </c>
+      <c r="C79">
+        <v>-0.1560969168617552</v>
+      </c>
+      <c r="D79">
+        <v>-0.03467121173240675</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.004782009650876117</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01049684677261482</v>
+      </c>
+      <c r="C80">
+        <v>-0.04121884927296123</v>
+      </c>
+      <c r="D80">
+        <v>-0.03476850188874508</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>-0.0003889051785068788</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01422930245967515</v>
+      </c>
+      <c r="C81">
+        <v>-0.119932466574672</v>
+      </c>
+      <c r="D81">
+        <v>-0.05652010152082453</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.0066330206888423</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01944458212723243</v>
+      </c>
+      <c r="C82">
+        <v>-0.141816399604442</v>
+      </c>
+      <c r="D82">
+        <v>-0.0492354170427259</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.00634859146438909</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.009551482148902132</v>
+      </c>
+      <c r="C83">
+        <v>-0.055660115853752</v>
+      </c>
+      <c r="D83">
+        <v>-0.05108319318451941</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01372460426628503</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01153725356024452</v>
+      </c>
+      <c r="C84">
+        <v>-0.03018567956394128</v>
+      </c>
+      <c r="D84">
+        <v>-0.001154012672996179</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01598893930445677</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.0276459755689965</v>
+      </c>
+      <c r="C85">
+        <v>-0.1277034042317275</v>
+      </c>
+      <c r="D85">
+        <v>-0.0540820042923893</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.003938087646343108</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.005307377636389864</v>
+      </c>
+      <c r="C86">
+        <v>-0.04811137572449539</v>
+      </c>
+      <c r="D86">
+        <v>-0.02666582009480373</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.007760443345045668</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.009684697659527172</v>
+      </c>
+      <c r="C87">
+        <v>-0.1269615700213821</v>
+      </c>
+      <c r="D87">
+        <v>-0.08223997932127587</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01409399480274187</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.003114063749907281</v>
+      </c>
+      <c r="C88">
+        <v>-0.06897250579332946</v>
+      </c>
+      <c r="D88">
+        <v>-0.02008287732832495</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01579842389300583</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001291321086579854</v>
+      </c>
+      <c r="C89">
+        <v>-0.1663167545738326</v>
+      </c>
+      <c r="D89">
+        <v>0.3433490943851814</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.004421170402898114</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.007106978843070946</v>
+      </c>
+      <c r="C90">
+        <v>-0.1437779448276323</v>
+      </c>
+      <c r="D90">
+        <v>0.3186357266010479</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.002330398187229846</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01004379770845949</v>
+      </c>
+      <c r="C91">
+        <v>-0.1031910288334204</v>
+      </c>
+      <c r="D91">
+        <v>-0.02268688304545083</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.01462740354098192</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.0002130739731483322</v>
+      </c>
+      <c r="C92">
+        <v>-0.1538974468283916</v>
+      </c>
+      <c r="D92">
+        <v>0.3268091648485481</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.002417763727657623</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.005044569122494005</v>
+      </c>
+      <c r="C93">
+        <v>-0.1255486944354249</v>
+      </c>
+      <c r="D93">
+        <v>0.309480814980041</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.003606655869183743</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02178204830152592</v>
+      </c>
+      <c r="C94">
+        <v>-0.156574838772235</v>
+      </c>
+      <c r="D94">
+        <v>-0.03551658615228735</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.005157004722356091</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01558805147554434</v>
+      </c>
+      <c r="C95">
+        <v>-0.1231837715274614</v>
+      </c>
+      <c r="D95">
+        <v>-0.07085717035815961</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.002186297253501247</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03429047831376299</v>
+      </c>
+      <c r="C97">
+        <v>-0.1754750047552812</v>
+      </c>
+      <c r="D97">
+        <v>-0.04407273057815856</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.006378411509353878</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03523345584149717</v>
+      </c>
+      <c r="C98">
+        <v>-0.2575268132673544</v>
+      </c>
+      <c r="D98">
+        <v>-0.0414647901920645</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9806330708886607</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.983002039923757</v>
+      </c>
+      <c r="C99">
+        <v>0.1068704925428515</v>
+      </c>
+      <c r="D99">
+        <v>0.03312793282499529</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.001861015278338468</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003230904206685458</v>
+      </c>
+      <c r="C101">
+        <v>-0.04777650821911501</v>
+      </c>
+      <c r="D101">
+        <v>-0.01766918633469422</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
